--- a/seattleu/main/studyAbroad/EAO Search 2.0.xlsx
+++ b/seattleu/main/studyAbroad/EAO Search 2.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="8_{D5939408-3BFA-493B-8079-4D584CD06C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A5B652-A3CB-48A3-B012-5BC8FBA3C36C}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="3240" windowWidth="26250" windowHeight="17010" firstSheet="1" xr2:uid="{D6348895-BA16-479A-B74E-F6A1B0C7C885}"/>
+    <workbookView xWindow="8" yWindow="0" windowWidth="24284" windowHeight="15480" firstSheet="1" xr2:uid="{D6348895-BA16-479A-B74E-F6A1B0C7C885}"/>
   </bookViews>
   <sheets>
     <sheet name="Fields" sheetId="1" r:id="rId1"/>
@@ -2826,47 +2826,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D5F6C2-5E34-4A07-8020-C71E8269D72A}">
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="12" customWidth="1"/>
-    <col min="2" max="4" width="20.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="12" customWidth="1"/>
-    <col min="6" max="7" width="13.7109375" style="26" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="12"/>
-    <col min="11" max="11" width="9.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="12"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="15" width="18.42578125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" style="12" customWidth="1"/>
+    <col min="2" max="4" width="20.59765625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" style="12" customWidth="1"/>
+    <col min="6" max="7" width="13.73046875" style="26" customWidth="1"/>
+    <col min="8" max="9" width="15.73046875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" style="12"/>
+    <col min="11" max="11" width="9.73046875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="8.86328125" style="12"/>
+    <col min="13" max="13" width="17.73046875" customWidth="1"/>
+    <col min="14" max="15" width="18.3984375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="18.73046875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="14.73046875" style="12" customWidth="1"/>
     <col min="18" max="18" width="21" style="12" customWidth="1"/>
-    <col min="19" max="19" width="25.140625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" style="12" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" style="12" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="12" customWidth="1"/>
-    <col min="24" max="24" width="23.28515625" style="12" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" style="12" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="25.1328125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="18.265625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="19.86328125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="13.86328125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="14.86328125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="23.265625" style="12" customWidth="1"/>
+    <col min="25" max="25" width="18.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.86328125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="20.1328125" style="12" customWidth="1"/>
     <col min="28" max="28" width="27" style="12" customWidth="1"/>
-    <col min="29" max="29" width="24.85546875" style="12" customWidth="1"/>
-    <col min="30" max="31" width="19.85546875" style="12" customWidth="1"/>
-    <col min="32" max="33" width="23.28515625" style="12" customWidth="1"/>
-    <col min="34" max="39" width="17.5703125" style="12" customWidth="1"/>
-    <col min="40" max="41" width="12.7109375" style="12" customWidth="1"/>
-    <col min="42" max="42" width="34.85546875" style="12" customWidth="1"/>
-    <col min="43" max="48" width="8.85546875" style="12"/>
-    <col min="49" max="49" width="11.5703125" style="12" customWidth="1"/>
-    <col min="50" max="16384" width="8.85546875" style="12"/>
+    <col min="29" max="29" width="24.86328125" style="12" customWidth="1"/>
+    <col min="30" max="31" width="19.86328125" style="12" customWidth="1"/>
+    <col min="32" max="33" width="23.265625" style="12" customWidth="1"/>
+    <col min="34" max="39" width="17.59765625" style="12" customWidth="1"/>
+    <col min="40" max="41" width="12.73046875" style="12" customWidth="1"/>
+    <col min="42" max="42" width="34.86328125" style="12" customWidth="1"/>
+    <col min="43" max="48" width="8.86328125" style="12"/>
+    <col min="49" max="49" width="11.59765625" style="12" customWidth="1"/>
+    <col min="50" max="16384" width="8.86328125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="22" customFormat="1" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" s="22" customFormat="1" ht="82.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="22" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" s="22" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" s="22" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="22" t="s">
         <v>102</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="83.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="83.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>122</v>
       </c>
@@ -3506,38 +3506,38 @@
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.73046875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="61.42578125" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="61.3984375" customWidth="1"/>
+    <col min="4" max="4" width="2.59765625" customWidth="1"/>
+    <col min="5" max="5" width="21.86328125" customWidth="1"/>
+    <col min="6" max="6" width="3.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="8" max="8" width="2.3984375" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.265625" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" customWidth="1"/>
-    <col min="16" max="16" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" customWidth="1"/>
-    <col min="18" max="18" width="41.5703125" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.28515625" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="1.85546875" customWidth="1"/>
+    <col min="13" max="13" width="1.73046875" customWidth="1"/>
+    <col min="14" max="14" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.86328125" customWidth="1"/>
+    <col min="16" max="16" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.73046875" customWidth="1"/>
+    <col min="18" max="18" width="41.59765625" customWidth="1"/>
+    <col min="19" max="19" width="2.59765625" customWidth="1"/>
+    <col min="20" max="20" width="56.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.265625" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.86328125" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.7109375" customWidth="1"/>
-    <col min="26" max="26" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.5703125" customWidth="1"/>
+    <col min="25" max="25" width="2.73046875" customWidth="1"/>
+    <col min="26" max="26" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>229</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>238</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>242</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>246</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>258</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>262</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>271</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>274</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>277</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>279</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>283</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>286</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>289</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>291</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>91</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>295</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
         <v>300</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>305</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>308</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>311</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>314</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
         <v>318</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
         <v>321</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
         <v>323</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
         <v>326</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
         <v>330</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
         <v>332</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
         <v>334</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
         <v>336</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
         <v>338</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
         <v>340</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C51" t="s">
         <v>343</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
         <v>345</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
         <v>348</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C54" t="s">
         <v>350</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
         <v>353</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
         <v>355</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C57" t="s">
         <v>357</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C58" t="s">
         <v>359</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C59" t="s">
         <v>361</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
         <v>363</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
         <v>365</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C62" t="s">
         <v>367</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
         <v>369</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C64" t="s">
         <v>371</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
         <v>373</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
         <v>375</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C67" t="s">
         <v>377</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C68" t="s">
         <v>379</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
         <v>381</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C70" t="s">
         <v>383</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C71" t="s">
         <v>385</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
         <v>387</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
         <v>389</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
         <v>391</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C75" t="s">
         <v>393</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C76" t="s">
         <v>395</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C77" t="s">
         <v>397</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C78" t="s">
         <v>399</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
         <v>401</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
         <v>403</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
         <v>405</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
         <v>407</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C83" t="s">
         <v>409</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C84" t="s">
         <v>410</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C85" t="s">
         <v>412</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
         <v>414</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C87" t="s">
         <v>416</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
         <v>418</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C89" t="s">
         <v>420</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C90" t="s">
         <v>422</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C91" t="s">
         <v>424</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C92" t="s">
         <v>426</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C93" t="s">
         <v>428</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C94" t="s">
         <v>430</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
         <v>432</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C96" t="s">
         <v>434</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="97" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I97" t="s">
         <v>436</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="98" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I98" t="s">
         <v>437</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="99" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I99" t="s">
         <v>438</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="100" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I100" t="s">
         <v>439</v>
       </c>
@@ -5369,6 +5369,64 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Member_Groups xmlns="36284210-5f47-463e-8be6-32c193eec040">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <NotebookType xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <AppVersion xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <Invited_Leaders xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <Members xmlns="36284210-5f47-463e-8be6-32c193eec040">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Self_Registration_Enabled xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <Has_Leaders_Only_SectionGroup xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <TeamsChannelId xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <CultureName xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <Leaders xmlns="36284210-5f47-463e-8be6-32c193eec040">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <IsNotebookLocked xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <Invited_Members xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <Templates xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <FolderType xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <Math_Settings xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
+    <Owner xmlns="36284210-5f47-463e-8be6-32c193eec040">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010034D0F66FD82E5F4BA12CD0D20EAD130D" ma:contentTypeVersion="31" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b6d3589a8850d517f7a614fadf70f0d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="55a35851-7bb3-4056-83e2-63beef49ba3d" xmlns:ns4="36284210-5f47-463e-8be6-32c193eec040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a00714f5290fae826ff8dc10fc1457e3" ns3:_="" ns4:_="">
     <xsd:import namespace="55a35851-7bb3-4056-83e2-63beef49ba3d"/>
@@ -5763,65 +5821,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Member_Groups xmlns="36284210-5f47-463e-8be6-32c193eec040">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <NotebookType xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <AppVersion xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <Invited_Leaders xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <Members xmlns="36284210-5f47-463e-8be6-32c193eec040">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Self_Registration_Enabled xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <Has_Leaders_Only_SectionGroup xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <TeamsChannelId xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <CultureName xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <Leaders xmlns="36284210-5f47-463e-8be6-32c193eec040">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <IsNotebookLocked xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <Invited_Members xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <Templates xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <FolderType xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <Math_Settings xmlns="36284210-5f47-463e-8be6-32c193eec040" xsi:nil="true"/>
-    <Owner xmlns="36284210-5f47-463e-8be6-32c193eec040">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F528AE82-A6E0-4301-A062-6085956DFDA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEF2A10-4855-4344-BECD-4784AEA0F1C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="36284210-5f47-463e-8be6-32c193eec040"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E5904-1214-4E70-9E0C-851D291F68CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5838,22 +5856,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEF2A10-4855-4344-BECD-4784AEA0F1C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="36284210-5f47-463e-8be6-32c193eec040"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F528AE82-A6E0-4301-A062-6085956DFDA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>